--- a/Document/FeatureList.xlsx
+++ b/Document/FeatureList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,111 +82,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>参与竞拍的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab选项卡首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录用户信息到SharedPreferences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录错误日志到SQLite数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看物品时浏览多个图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品列表页下载物品的实际图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞拍物品被别人竞拍提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示本地日志情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于页面打开WebView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品被竞拍的次数显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类下的物品个数显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求接口时自动带uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页数据分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>竞得物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与竞拍的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab选项卡首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录用户信息到SharedPreferences</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录错误日志到SQLite数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞拍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看物品时浏览多个图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品列表页下载物品的实际图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞拍物品被别人竞拍提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示本地日志情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于页面打开WebView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品被竞拍的次数显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类下的物品个数显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求接口时自动带uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表页数据分页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -591,48 +591,48 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -649,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -665,7 +665,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -690,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -699,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -715,7 +715,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -728,9 +728,11 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
@@ -742,27 +744,15 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A17:A18"/>
@@ -777,10 +767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -804,46 +794,46 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -856,10 +846,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -872,10 +862,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -888,10 +878,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -926,25 +916,38 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
